--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,15 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab23'!$A$1:$F$102</definedName>
   </definedNames>
@@ -26,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="179">
+  <si>
+    <t>Tableau 23 : Durabilité écologique</t>
+  </si>
   <si>
     <t>ISO3 Code</t>
   </si>
@@ -532,7 +531,19 @@
     <t>États extrêmement fragiles</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-fr-2021.</t>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
+  </si>
+  <si>
+    <t>Source : FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020).</t>
+  </si>
+  <si>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -1131,462 +1142,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Output files"/>
-      <sheetName val="Refperiod (Statworks)"/>
-      <sheetName val="Table names (Statworks)"/>
-      <sheetName val="Var descriptions (Statworks)"/>
-      <sheetName val="bit.ly"/>
-      <sheetName val="Code conversion"/>
-      <sheetName val="Indicators (EN raw data)"/>
-      <sheetName val="Indicateurs (FR raw data)"/>
-      <sheetName val="Indicators trad"/>
-      <sheetName val="IndCodes (Statworks)"/>
-      <sheetName val="AfDD_DDAf_2020_TabInds (CSV)"/>
-      <sheetName val="Variable titles trad"/>
-      <sheetName val="Check IndCodes (EN)"/>
-      <sheetName val="CntryPays (Statworks)"/>
-      <sheetName val="AfDD_DDAf_2020_CntryPays (CSV)"/>
-      <sheetName val="CYC variables"/>
-      <sheetName val="Country groupings trad"/>
-      <sheetName val="Sources (public)"/>
-      <sheetName val="Source trad"/>
-      <sheetName val="Indicators tab"/>
-      <sheetName val="Extracted column headings"/>
-      <sheetName val="Combine extracted &amp; Indicators"/>
-      <sheetName val="From To SW &amp; AfDD_DDAf"/>
-      <sheetName val="IndCode Changes"/>
-      <sheetName val="Top exports by country and year"/>
-      <sheetName val="Sources (private)"/>
-      <sheetName val="WebSites"/>
-      <sheetName val="Names, indicators, metadata, 20"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="D2" t="str">
-            <v>Tableau 1: Indicateurs de croissance, d'emploi et d'inégalités</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="D24" t="str">
-            <v>Tableau 23: Durabilité écologique</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Short</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>English note</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>French note</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Source: International Labour Organization - ILOSTAT (retrieved 25/10/2020), United Nations Development Programme Human Development Data Online (2019 edition), World Bank World Development Indicators (database and data releases from central banks, nat</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Source: International Labour Organization - ILOSTAT (retrieved 25/10/2020), United Nations Development Programme Human Development Data Online (2019 edition), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 16/10/2020), IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>Source : Organisation internationale du Travail - ILOSTAT (récupéré le 25/10/2020), données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2019), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale - mis à jour le 16/10/2020), base de données des Perspectives de l'économie mondiale du FMI, octobre 2020.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Figures up to 2019 are estimates. For 2020 onwards, they are projections.</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Figures up to 2019 are estimates. For 2020 onwards, they are projections.</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>Jusqu'à 2019 les chiffres sont des estimations. A partir de 2020 il s'agit de projections.</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Source: IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Source: IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>Source : Base de données des perspectives de l'économie mondiale du FMI, octobre 2020.</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision and World Urbanization Prospects: the 2018 revision.</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018.</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Source: UNESCO Institute for Statistics (UIS) Database (September 2020).</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Source: UNESCO Institute for Statistics (UIS) Database (September 2020).</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Source : Base de données de l'Institut de statistique de l'UNESCO (ISU), septembre 2020.</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Source: Wittgenstein Centre Human Capital Data Explorer, 2018.</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Source: Wittgenstein Centre Human Capital Data Explorer, 2018.</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>Source : Wittgenstein Centre Human Capital Data Explorer, 2018.</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Source: International Labour Organization - ILOSTAT (retrieved 25/10/2020).</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Source: International Labour Organization - ILOSTAT (retrieved 25/10/2020).</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>Source : Organisation internationale du Travail - ILOSTAT (récupérés le 25/10/2020).</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Source: International Labour Organisation (retrieved 25/10/2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/10/2020).</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Source: International Labour Organisation (retrieved 25/10/2020), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/10/2020).</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>Source : Organisation internationale du Travail (récupéré le 25/10/2020), Indicateurs de développement dans le monde de la Banque mondiale (données des banques centrales, des agences nationales de statistiques et des bureaux nationaux de la Banque mondiale du 16/10/2020).</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>(1) Percentage of households with most recent income reported between 2010 and 2019 in 2011 PPP dollars below poverty lines defined by World Bank; LMIC = "Lower middle income countries"; UMIC = "Upper middle income countries";</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>(1) Percentage of households with most recent income reported between 2010 and 2019 in 2011 PPP dollars below poverty lines defined by World Bank; LMIC = "Lower middle income countries"; UMIC = "Upper middle income countries";</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>(1) Pourcentage de ménages dont les revenus pour l'année la plus récente rapportée entre 2010 et 2019 en dollars PPA 2011 en dessous du seuil de pauvreté défini par la Banque mondiale ; PRII = "pays à revenu intermédiaire de la tranche inférieure" ; PRIS = "pays à revenu intermédiaire supérieur";</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/10/2020), International Labour Organization - ILOSTAT (retrieved 16/11/2020).</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Source: World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/10/2020), International Labour Organization - ILOSTAT (retrieved 16/11/2020).</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>Source : Indicateurs du développement dans le monde issus des statistiques du FMI sur la balance des paiements (bases de données et communiqués des banques centrales, des agences nationales de statistique et des bureaux pays de la Banque mondiale - récupérés le 16/10/2020), Organisation internationale du travail - ILOSTAT (récupéré le 16/11/2020).</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Source: United Nations Development Programme Human Development Data Online (2019 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Source: United Nations Development Programme Human Development Data Online (2019 edition), Social Institutions and Gender Index, OECD Development Centre (updated with new methodology December 2018).</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2019), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Source: International Telecommunication Union - ICT Indicators Online Database (July 2020), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Source: International Telecommunication Union - ICT Indicators Online Database (July 2020), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>Source : Union internationale des télécommunications - Base de données en ligne des indicateurs TIC (juillet 2020), GSMA Intelligence (mise à jour en juin 2020), Gallup World Poll (consulté le 15 décembre 2019).</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Source: OECD Development Assistance Committee (updated 28/10/2020), UNCTADStat Online Data Centre (retrieved 05/11/2020), FDI Online Database (updated 20/07/2020), World Bank Migration and Remittances Data (October 2020), IMF World Economic Outlook D</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Source: OECD Development Assistance Committee (updated 28/10/2020), UNCTADStat Online Data Centre (retrieved 05/11/2020), FDI Online Database (updated 20/07/2020), World Bank Migration and Remittances Data (October 2020), IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>Source : Comité d'aide au développement de l'OCDE (mise à jour 28/10/2020), base de données sur les IDE du Centre de données en ligne UNCTADStat (récupérés le 05/11/2020), données de la Banque mondiale sur la migration et les remises (octobre 2020), base de données des Perspectives de l'économie mondiale du FMI octobre 2020.</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2020 edition).</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Source: United Nations Department of Economic and Social Affairs Population Division World Population Prospects: the 2019 Revision, Global Hunger Index from Welthungerhilfe and Concern Worldwide (2020 edition).</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Source : Département des affaires économiques et sociales des Nations Unies, Division de la population, Perspectives de la population mondiale : révision 2019 et Perspectives de l'urbanisation mondiale : révision de 2018, Global Hunger Index de Welthungerhilfe and Concern Worldwide (édition 2020)..</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Source: World Happiness Report Online Dataset 2020.</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Source: World Happiness Report Online Dataset 2020.</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>Source : base de données en ligne du World Happiness Report 2020.</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>Source: Authors calculations based on COMTRADE WITS Online Database (retrieved 25/10/2020).</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Source: Authors calculations based on COMTRADE WITS Online Database (retrieved 25/10/2020).</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>Calculs des auteurs basés sur la base de données en ligne COMTRADE WITS (récupérés le 25/10/2020).</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>Source: COMTRADE WITS Online Database (retrieved 27/10/2020), IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Source: COMTRADE WITS Online Database (retrieved 27/10/2020), IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>Source : Base de données en ligne COMTRADE WITS (récupérés le 27/10/2020), base de données des Perspectives de l'économie mondiale du FMI, octobre 2020.</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 06/11/2020).</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 06/11/2020).</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>Source : FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020).</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Source: Authors calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 18/11/2020), UNCTAD B2C E-Commerce Index Reports (2015-2019).</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Source: Authors calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 18/11/2020), UNCTAD B2C E-Commerce Index Reports (2015-2019).</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>Source : Calculs des auteurs basés sur l'enquête de la Banque mondiale sur les entreprises (récupéré avril 2020), UNCTADStat Online Data Center (récupéré le 18/11/2020), CNUCED B2C E-Commerce Index Reports (2015-2019).</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2019), World Bank World Development Indicators (database and data release</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Source: International Labour Organisation (retrieved 25/10/2020), United Nations Statistics Division National Accounts (Analysis of Main Aggregates dataset uploaded in December 2019), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks -16/10/2020).</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>Source : Organisation internationale du travail (récupéré le 25/10/2020), Division des statistiques des Nations Unies, Comptes nationaux (analyse des principaux agrégats, jeu de données téléchargé en décembre 2019), Indicateurs du développement dans le monde de la Banque mondiale (base de données et données publiées par les banques centrales, les agences nationales de statistique, et bureaux de pays de la Banque mondiale -16/10/2020).</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Source: Authors calculations based on IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Source: Authors calculations based on IMF World Economic Outlook Database October 2020.</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>Source : Calculs de l'auteur basés sur la base de données des Perspectives de l'économie mondiale du FMI, octobre 2020.</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>Les exportations / importations des cinq pays membres de l'Union douanière de l'Afrique australe (Afrique du Sud, Botswana, Eswatini, Lesotho et Namibie) sont déclarées en tant qu'exportations / importations pour l'Afrique du Sud dans ces données afin d'améliorer la cohérence des données.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Contents"/>
-      <sheetName val="Tab01"/>
-      <sheetName val="Tab02"/>
-      <sheetName val="Tab03"/>
-      <sheetName val="Tab04"/>
-      <sheetName val="Tab05"/>
-      <sheetName val="Tab06"/>
-      <sheetName val="Tab07"/>
-      <sheetName val="Tab08"/>
-      <sheetName val="Tab09"/>
-      <sheetName val="Tab10"/>
-      <sheetName val="Tab11"/>
-      <sheetName val="Tab12"/>
-      <sheetName val="Tab13"/>
-      <sheetName val="Tab14"/>
-      <sheetName val="Tab15"/>
-      <sheetName val="Tab16"/>
-      <sheetName val="Tab17"/>
-      <sheetName val="Tab18"/>
-      <sheetName val="Tab19"/>
-      <sheetName val="Tab20"/>
-      <sheetName val="Tab21"/>
-      <sheetName val="Tab22"/>
-      <sheetName val="Tab23"/>
-      <sheetName val="Country groupings"/>
-      <sheetName val="Indicators"/>
-      <sheetName val="Sources"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Country Area (thousands of ha), 2018</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>Source: FAOSTAT online dataset, Food and Agriculture Organization of the United Nations (retrieved 06/11/2020).</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1865,9 +1420,8 @@
     <row r="1" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="str">
-        <f>'[1]Table names (Statworks)'!$D$24</f>
-        <v>Tableau 23: Durabilité écologique</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1887,66 +1441,66 @@
     </row>
     <row r="2" spans="1:18" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="14">
         <v>124670</v>
@@ -1961,7 +1515,7 @@
         <v>67717.509999999995</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="14">
         <v>3057.0328909999998</v>
@@ -1999,10 +1553,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14">
         <v>58173</v>
@@ -2035,7 +1589,7 @@
         <v>34.629939999999998</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="14">
         <v>2340</v>
@@ -2055,10 +1609,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>1736</v>
@@ -2076,31 +1630,31 @@
         <v>16</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19">
         <v>2405</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="19">
         <v>22.726900000000001</v>
@@ -2111,10 +1665,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18">
         <v>3036</v>
@@ -2129,34 +1683,34 @@
         <v>34.520000000000003</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="19">
         <v>2282</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="19">
         <v>1.6394</v>
@@ -2167,10 +1721,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18">
         <v>11848</v>
@@ -2223,10 +1777,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18">
         <v>79938</v>
@@ -2279,10 +1833,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18">
         <v>82429</v>
@@ -2312,10 +1866,10 @@
         <v>202.17576399999999</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="19">
         <v>2431</v>
@@ -2335,10 +1889,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18">
         <v>121909</v>
@@ -2391,10 +1945,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="14">
         <v>75261</v>
@@ -2424,10 +1978,10 @@
         <v>1967.1030370000001</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="14">
         <v>2013</v>
@@ -2447,10 +2001,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="18">
         <v>39076</v>
@@ -2468,22 +2022,22 @@
         <v>391</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="19">
         <v>2173</v>
@@ -2503,10 +2057,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="26">
         <v>598076</v>
@@ -2559,10 +2113,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18">
         <v>2783</v>
@@ -2598,7 +2152,7 @@
         <v>27.159061000000001</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="19">
         <v>13456.65</v>
@@ -2615,10 +2169,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="18">
         <v>47544</v>
@@ -2671,10 +2225,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18">
         <v>62298</v>
@@ -2689,7 +2243,7 @@
         <v>22363</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="19">
         <v>812.02478799999994</v>
@@ -2704,10 +2258,10 @@
         <v>812.02478799999994</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="19">
         <v>1758</v>
@@ -2727,10 +2281,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14">
         <v>128400</v>
@@ -2769,10 +2323,10 @@
         <v>2090</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="14">
         <v>249.01689999999999</v>
@@ -2783,10 +2337,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="14">
         <v>34200</v>
@@ -2839,10 +2393,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="14">
         <v>234486</v>
@@ -2860,25 +2414,25 @@
         <v>7781</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" s="14">
         <v>9670.52</v>
@@ -2895,10 +2449,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="14">
         <v>2805</v>
@@ -2913,13 +2467,13 @@
         <v>2465.14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="14">
         <v>149.454779</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="14">
         <v>134.59779900000001</v>
@@ -2934,13 +2488,13 @@
         <v>7.0239859999999998</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="14">
         <v>308.1918</v>
@@ -2951,10 +2505,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="14">
         <v>26767</v>
@@ -2972,22 +2526,22 @@
         <v>1000</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="14">
         <v>2643</v>
@@ -3007,10 +2561,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="18">
         <v>96</v>
@@ -3025,34 +2579,34 @@
         <v>53.14</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" s="19">
         <v>2418</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="19">
         <v>5.0328999999999997</v>
@@ -3063,10 +2617,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26">
         <v>539379</v>
@@ -3119,10 +2673,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="18">
         <v>186.1</v>
@@ -3137,34 +2691,34 @@
         <v>33.799999999999997</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="19">
         <v>1.2597</v>
@@ -3175,10 +2729,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="18">
         <v>2320</v>
@@ -3196,31 +2750,31 @@
         <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" s="19">
         <v>2680</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="19">
         <v>0.3019</v>
@@ -3231,10 +2785,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="18">
         <v>11760</v>
@@ -3252,25 +2806,25 @@
         <v>1660</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O26" s="19">
         <v>4650.05</v>
@@ -3287,10 +2841,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="18">
         <v>113625.94100000001</v>
@@ -3343,10 +2897,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="18">
         <v>58037</v>
@@ -3399,10 +2953,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="18">
         <v>58729.5</v>
@@ -3455,10 +3009,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="18">
         <v>204</v>
@@ -3511,10 +3065,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="18">
         <v>2634</v>
@@ -3567,10 +3121,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="18">
         <v>46</v>
@@ -3585,13 +3139,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="19">
         <v>16.571204999999999</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" s="19">
         <v>10.332527000000001</v>
@@ -3606,7 +3160,7 @@
         <v>0.19053200000000001</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O32" s="19">
         <v>46.75</v>
@@ -3623,10 +3177,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="18">
         <v>63766</v>
@@ -3644,31 +3198,31 @@
         <v>1032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="19">
         <v>378.19159999999999</v>
@@ -3679,10 +3233,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="14">
         <v>63390.657599999999</v>
@@ -3700,34 +3254,34 @@
         <v>197.84530000000001</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R34" s="15">
         <v>47821.184699999998</v>
@@ -3735,10 +3289,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="18">
         <v>185410.5405</v>
@@ -3756,22 +3310,22 @@
         <v>487.16899999999998</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" s="19">
         <v>2433</v>
@@ -3791,10 +3345,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="18">
         <v>94730</v>
@@ -3812,22 +3366,22 @@
         <v>6150</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36" s="19">
         <v>2396</v>
@@ -3847,10 +3401,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="18">
         <v>24155</v>
@@ -3868,22 +3422,22 @@
         <v>4103</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37" s="19">
         <v>2144</v>
@@ -3903,10 +3457,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="26">
         <v>678994.73910000001</v>
@@ -3959,10 +3513,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="14">
         <v>238174.1</v>
@@ -3977,7 +3531,7 @@
         <v>1930</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" s="14">
         <v>22703.949819000001</v>
@@ -4015,10 +3569,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="18">
         <v>100145</v>
@@ -4071,10 +3625,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="14">
         <v>175954</v>
@@ -4089,28 +3643,28 @@
         <v>217</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O41" s="14">
         <v>14700</v>
@@ -4127,10 +3681,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="14">
         <v>103070</v>
@@ -4145,34 +3699,34 @@
         <v>323.7</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N42" s="14">
         <v>2842</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="14">
         <v>11.2486</v>
@@ -4183,10 +3737,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="18">
         <v>44655</v>
@@ -4239,10 +3793,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="18">
         <v>16361</v>
@@ -4260,22 +3814,22 @@
         <v>825</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44" s="19">
         <v>3467</v>
@@ -4295,10 +3849,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="26">
         <v>678359.1</v>
@@ -4351,10 +3905,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="18">
         <v>11476</v>
@@ -4387,7 +3941,7 @@
         <v>27.943912000000001</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N46" s="19">
         <v>2756</v>
@@ -4407,10 +3961,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="18">
         <v>27422</v>
@@ -4463,10 +4017,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="18">
         <v>403</v>
@@ -4481,7 +4035,7 @@
         <v>45.12</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="19">
         <v>172.454757</v>
@@ -4505,10 +4059,10 @@
         <v>2515</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="19">
         <v>2.5809000000000002</v>
@@ -4519,10 +4073,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="18">
         <v>32246</v>
@@ -4575,10 +4129,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="18">
         <v>1130</v>
@@ -4631,10 +4185,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="14">
         <v>23854</v>
@@ -4687,10 +4241,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="18">
         <v>24586</v>
@@ -4743,10 +4297,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="18">
         <v>3613</v>
@@ -4779,16 +4333,16 @@
         <v>480.46636599999999</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53" s="19">
         <v>2253</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="19">
         <v>95.850700000000003</v>
@@ -4799,10 +4353,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="18">
         <v>11137</v>
@@ -4820,31 +4374,31 @@
         <v>1505</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N54" s="19">
         <v>2132</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="19">
         <v>919.12860000000001</v>
@@ -4855,10 +4409,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="18">
         <v>124019</v>
@@ -4911,10 +4465,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="18">
         <v>126700</v>
@@ -4967,10 +4521,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="14">
         <v>92377</v>
@@ -5023,10 +4577,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="18">
         <v>19671</v>
@@ -5079,10 +4633,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="18">
         <v>7230</v>
@@ -5121,10 +4675,10 @@
         <v>2449</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="19">
         <v>119.06319999999999</v>
@@ -5135,10 +4689,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="14">
         <v>5679</v>
@@ -5168,10 +4722,10 @@
         <v>1178.8538880000001</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60" s="14">
         <v>2429</v>
@@ -5192,7 +4746,7 @@
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="26">
         <v>511543</v>
@@ -5246,7 +4800,7 @@
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29"/>
       <c r="B62" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="31">
         <v>3006351.8391</v>
@@ -5300,7 +4854,7 @@
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="31">
         <v>10394697.388900001</v>
@@ -5354,7 +4908,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="36">
         <v>2041468.7</v>
@@ -5408,7 +4962,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="40">
         <v>2515516.8199999998</v>
@@ -5462,7 +5016,7 @@
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="36">
         <v>13401049.228</v>
@@ -5516,7 +5070,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="43">
         <v>1178524.0815000001</v>
@@ -5570,7 +5124,7 @@
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="40">
         <v>1394328.6405</v>
@@ -5624,7 +5178,7 @@
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C69" s="40">
         <v>245729.65760000001</v>
@@ -5678,7 +5232,7 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" s="40">
         <v>666683</v>
@@ -5732,7 +5286,7 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="40">
         <v>511543</v>
@@ -5786,7 +5340,7 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="40">
         <v>522465.13909999997</v>
@@ -5840,7 +5394,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="40">
         <v>986457.59999999998</v>
@@ -5894,7 +5448,7 @@
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="34"/>
       <c r="B74" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="36">
         <v>578214.1</v>
@@ -5948,7 +5502,7 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="34"/>
       <c r="B75" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="43">
         <v>449247.62</v>
@@ -6002,7 +5556,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="40">
         <v>1770860.2</v>
@@ -6056,7 +5610,7 @@
     <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="34"/>
       <c r="B77" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="36">
         <v>417283.88890000002</v>
@@ -6110,7 +5664,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="43">
         <v>1387260.7575999999</v>
@@ -6164,7 +5718,7 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="34"/>
       <c r="B79" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" s="40">
         <v>3049873.19</v>
@@ -6218,7 +5772,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" s="40">
         <v>1619091.0815000001</v>
@@ -6272,7 +5826,7 @@
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="34"/>
       <c r="B81" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C81" s="36">
         <v>7344824.1989000002</v>
@@ -6326,7 +5880,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C82" s="43">
         <v>1374740.6391</v>
@@ -6380,7 +5934,7 @@
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="34"/>
       <c r="B83" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83" s="40">
         <v>165568</v>
@@ -6434,7 +5988,7 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C84" s="40">
         <v>1163324.2</v>
@@ -6488,7 +6042,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85" s="40">
         <v>1094094.8999999999</v>
@@ -6542,7 +6096,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" s="40">
         <v>468037</v>
@@ -6596,7 +6150,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87" s="40">
         <v>5443073.8200000003</v>
@@ -6650,7 +6204,7 @@
     <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C88" s="36">
         <v>3692210.6688999999</v>
@@ -6704,7 +6258,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C89" s="43">
         <v>1809256.7390999999</v>
@@ -6758,7 +6312,7 @@
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C90" s="40">
         <v>269295</v>
@@ -6812,7 +6366,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" s="40">
         <v>4548.1000000000004</v>
@@ -6866,7 +6420,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" s="40">
         <v>116594.9</v>
@@ -6920,7 +6474,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93" s="40">
         <v>864557.59860000003</v>
@@ -6974,7 +6528,7 @@
     <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94" s="36">
         <v>832383.4</v>
@@ -7028,7 +6582,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" s="43">
         <v>1472772.541</v>
@@ -7082,7 +6636,7 @@
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="40">
         <v>580071</v>
@@ -7136,7 +6690,7 @@
     <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="34"/>
       <c r="B97" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C97" s="47">
         <v>957615.39809999999</v>
@@ -7208,9 +6762,8 @@
       <c r="R98" s="52"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A99" s="53" t="str">
-        <f>VLOOKUP(LEFT([2]Tab23!A99,250),'[1]Source trad'!$A:$C,3,FALSE)</f>
-        <v>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</v>
+      <c r="A99" s="53" t="s">
+        <v>169</v>
       </c>
       <c r="B99" s="54"/>
       <c r="D99" s="55"/>
@@ -7230,9 +6783,8 @@
       <c r="R99" s="56"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A100" s="53" t="str">
-        <f>VLOOKUP(LEFT([2]Tab23!A100,250),'[1]Source trad'!$A:$C,3,FALSE)</f>
-        <v>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</v>
+      <c r="A100" s="53" t="s">
+        <v>170</v>
       </c>
       <c r="B100" s="54"/>
       <c r="D100" s="55"/>
@@ -7252,9 +6804,8 @@
       <c r="R100" s="56"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A101" s="53" t="str">
-        <f>VLOOKUP(LEFT([2]Tab23!A101,250),'[1]Source trad'!$A:$C,3,FALSE)</f>
-        <v>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</v>
+      <c r="A101" s="53" t="s">
+        <v>171</v>
       </c>
       <c r="B101" s="54"/>
       <c r="D101" s="55"/>
@@ -7274,9 +6825,8 @@
       <c r="R101" s="56"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A102" s="53" t="str">
-        <f>VLOOKUP(LEFT([2]Tab23!A102,250),'[1]Source trad'!$A:$C,3,FALSE)</f>
-        <v>Source : FAOSTAT base de données en ligne, Organisation des Nations Unies pour l'alimentation et l'agriculture (récupéré le 06/11/2020).</v>
+      <c r="A102" s="53" t="s">
+        <v>172</v>
       </c>
       <c r="B102" s="54"/>
       <c r="D102" s="55"/>
@@ -7333,7 +6883,7 @@
     </row>
     <row r="105" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="58" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
@@ -7371,7 +6921,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B107" s="59" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
@@ -7391,7 +6941,7 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D108" s="55"/>
       <c r="E108" s="55"/>
@@ -7411,7 +6961,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="59" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
@@ -7431,7 +6981,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -7451,7 +7001,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="59" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
@@ -7471,14 +7021,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B107" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails."/>
-    <hyperlink ref="B108" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs."/>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2"/>
-    <hyperlink ref="B110" r:id="rId3"/>
-    <hyperlink ref="B105" r:id="rId4"/>
+    <hyperlink ref="B107" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId2"/>
+    <hyperlink ref="B109" r:id="rId3"/>
+    <hyperlink ref="B111" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B105" r:id="rId6" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2021-fr"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId5"/>
+  <pageSetup scale="83" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -956,7 +956,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1123,6 +1123,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -6960,7 +6961,7 @@
       <c r="R108" s="56"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B109" s="59" t="s">
+      <c r="B109" s="60" t="s">
         <v>176</v>
       </c>
       <c r="D109" s="55"/>
@@ -6980,7 +6981,7 @@
       <c r="R109" s="56"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B110" s="59" t="s">
+      <c r="B110" s="60" t="s">
         <v>177</v>
       </c>
       <c r="D110" s="55"/>
@@ -7000,7 +7001,7 @@
       <c r="R110" s="56"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="B111" s="59" t="s">
+      <c r="B111" s="60" t="s">
         <v>178</v>
       </c>
       <c r="D111" s="55"/>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
   <si>
     <t>Tableau 23 : Durabilité écologique</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Pays (pays riches en ressources ombrés)</t>
-  </si>
-  <si>
-    <t>Superficie (milliers d'hectares), 2018</t>
   </si>
   <si>
     <t>Terres agricoles (milliers d'hectares), 2018</t>
@@ -1447,61 +1444,61 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="14">
         <v>124670</v>
@@ -1516,7 +1513,7 @@
         <v>67717.509999999995</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="14">
         <v>3057.0328909999998</v>
@@ -1554,10 +1551,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="14">
         <v>58173</v>
@@ -1590,7 +1587,7 @@
         <v>34.629939999999998</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N4" s="14">
         <v>2340</v>
@@ -1610,10 +1607,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>1736</v>
@@ -1631,31 +1628,31 @@
         <v>16</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="19">
         <v>2405</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="19">
         <v>22.726900000000001</v>
@@ -1666,10 +1663,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="C6" s="18">
         <v>3036</v>
@@ -1684,34 +1681,34 @@
         <v>34.520000000000003</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N6" s="19">
         <v>2282</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="19">
         <v>1.6394</v>
@@ -1722,10 +1719,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="C7" s="18">
         <v>11848</v>
@@ -1778,10 +1775,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="C8" s="18">
         <v>79938</v>
@@ -1834,10 +1831,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="C9" s="18">
         <v>82429</v>
@@ -1867,10 +1864,10 @@
         <v>202.17576399999999</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="19">
         <v>2431</v>
@@ -1890,10 +1887,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="C10" s="18">
         <v>121909</v>
@@ -1946,10 +1943,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C11" s="14">
         <v>75261</v>
@@ -1979,10 +1976,10 @@
         <v>1967.1030370000001</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="14">
         <v>2013</v>
@@ -2002,10 +1999,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>39</v>
       </c>
       <c r="C12" s="18">
         <v>39076</v>
@@ -2023,22 +2020,22 @@
         <v>391</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="19">
         <v>2173</v>
@@ -2058,10 +2055,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="26">
         <v>598076</v>
@@ -2114,10 +2111,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="C14" s="18">
         <v>2783</v>
@@ -2153,7 +2150,7 @@
         <v>27.159061000000001</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O14" s="19">
         <v>13456.65</v>
@@ -2170,10 +2167,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="C15" s="18">
         <v>47544</v>
@@ -2226,10 +2223,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="18">
         <v>62298</v>
@@ -2244,7 +2241,7 @@
         <v>22363</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="19">
         <v>812.02478799999994</v>
@@ -2259,10 +2256,10 @@
         <v>812.02478799999994</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="19">
         <v>1758</v>
@@ -2282,10 +2279,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="14">
         <v>128400</v>
@@ -2324,10 +2321,10 @@
         <v>2090</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="14">
         <v>249.01689999999999</v>
@@ -2338,10 +2335,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="14">
         <v>34200</v>
@@ -2394,10 +2391,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="C19" s="14">
         <v>234486</v>
@@ -2415,25 +2412,25 @@
         <v>7781</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O19" s="14">
         <v>9670.52</v>
@@ -2450,10 +2447,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="C20" s="14">
         <v>2805</v>
@@ -2468,13 +2465,13 @@
         <v>2465.14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="14">
         <v>149.454779</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" s="14">
         <v>134.59779900000001</v>
@@ -2489,13 +2486,13 @@
         <v>7.0239859999999998</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="14">
         <v>308.1918</v>
@@ -2506,10 +2503,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="C21" s="14">
         <v>26767</v>
@@ -2527,22 +2524,22 @@
         <v>1000</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="14">
         <v>2643</v>
@@ -2562,10 +2559,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="C22" s="18">
         <v>96</v>
@@ -2580,34 +2577,34 @@
         <v>53.14</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="19">
         <v>2418</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q22" s="19">
         <v>5.0328999999999997</v>
@@ -2618,10 +2615,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="26">
         <v>539379</v>
@@ -2674,10 +2671,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="C24" s="18">
         <v>186.1</v>
@@ -2692,34 +2689,34 @@
         <v>33.799999999999997</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="19">
         <v>1.2597</v>
@@ -2730,10 +2727,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="C25" s="18">
         <v>2320</v>
@@ -2751,31 +2748,31 @@
         <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N25" s="19">
         <v>2680</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="19">
         <v>0.3019</v>
@@ -2786,10 +2783,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="C26" s="18">
         <v>11760</v>
@@ -2807,25 +2804,25 @@
         <v>1660</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O26" s="19">
         <v>4650.05</v>
@@ -2842,10 +2839,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="C27" s="18">
         <v>113625.94100000001</v>
@@ -2898,10 +2895,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>69</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="C28" s="18">
         <v>58037</v>
@@ -2954,10 +2951,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>72</v>
       </c>
       <c r="C29" s="18">
         <v>58729.5</v>
@@ -3010,10 +3007,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="C30" s="18">
         <v>204</v>
@@ -3066,10 +3063,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="18">
         <v>2634</v>
@@ -3122,10 +3119,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="C32" s="18">
         <v>46</v>
@@ -3140,13 +3137,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="19">
         <v>16.571204999999999</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J32" s="19">
         <v>10.332527000000001</v>
@@ -3161,7 +3158,7 @@
         <v>0.19053200000000001</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O32" s="19">
         <v>46.75</v>
@@ -3178,10 +3175,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>80</v>
       </c>
       <c r="C33" s="18">
         <v>63766</v>
@@ -3199,31 +3196,31 @@
         <v>1032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="19">
         <v>378.19159999999999</v>
@@ -3234,10 +3231,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="C34" s="14">
         <v>63390.657599999999</v>
@@ -3255,34 +3252,34 @@
         <v>197.84530000000001</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R34" s="15">
         <v>47821.184699999998</v>
@@ -3290,10 +3287,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="C35" s="18">
         <v>185410.5405</v>
@@ -3311,22 +3308,22 @@
         <v>487.16899999999998</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N35" s="19">
         <v>2433</v>
@@ -3346,10 +3343,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="C36" s="18">
         <v>94730</v>
@@ -3367,22 +3364,22 @@
         <v>6150</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N36" s="19">
         <v>2396</v>
@@ -3402,10 +3399,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>88</v>
       </c>
       <c r="C37" s="18">
         <v>24155</v>
@@ -3423,22 +3420,22 @@
         <v>4103</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N37" s="19">
         <v>2144</v>
@@ -3458,10 +3455,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="26">
         <v>678994.73910000001</v>
@@ -3514,10 +3511,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="C39" s="14">
         <v>238174.1</v>
@@ -3532,7 +3529,7 @@
         <v>1930</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="14">
         <v>22703.949819000001</v>
@@ -3570,10 +3567,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>93</v>
       </c>
       <c r="C40" s="18">
         <v>100145</v>
@@ -3626,10 +3623,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="C41" s="14">
         <v>175954</v>
@@ -3644,28 +3641,28 @@
         <v>217</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="14">
         <v>14700</v>
@@ -3682,10 +3679,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>97</v>
       </c>
       <c r="C42" s="14">
         <v>103070</v>
@@ -3700,34 +3697,34 @@
         <v>323.7</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N42" s="14">
         <v>2842</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="14">
         <v>11.2486</v>
@@ -3738,10 +3735,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="C43" s="18">
         <v>44655</v>
@@ -3794,10 +3791,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>101</v>
       </c>
       <c r="C44" s="18">
         <v>16361</v>
@@ -3815,22 +3812,22 @@
         <v>825</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N44" s="19">
         <v>3467</v>
@@ -3850,10 +3847,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="26">
         <v>678359.1</v>
@@ -3906,10 +3903,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="C46" s="18">
         <v>11476</v>
@@ -3942,7 +3939,7 @@
         <v>27.943912000000001</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N46" s="19">
         <v>2756</v>
@@ -3962,10 +3959,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="C47" s="18">
         <v>27422</v>
@@ -4018,10 +4015,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="C48" s="18">
         <v>403</v>
@@ -4036,7 +4033,7 @@
         <v>45.12</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="19">
         <v>172.454757</v>
@@ -4060,10 +4057,10 @@
         <v>2515</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q48" s="19">
         <v>2.5809000000000002</v>
@@ -4074,10 +4071,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="C49" s="18">
         <v>32246</v>
@@ -4130,10 +4127,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="C50" s="18">
         <v>1130</v>
@@ -4186,10 +4183,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="C51" s="14">
         <v>23854</v>
@@ -4242,10 +4239,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="C52" s="18">
         <v>24586</v>
@@ -4298,10 +4295,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="C53" s="18">
         <v>3613</v>
@@ -4334,16 +4331,16 @@
         <v>480.46636599999999</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N53" s="19">
         <v>2253</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q53" s="19">
         <v>95.850700000000003</v>
@@ -4354,10 +4351,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="C54" s="18">
         <v>11137</v>
@@ -4375,31 +4372,31 @@
         <v>1505</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N54" s="19">
         <v>2132</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q54" s="19">
         <v>919.12860000000001</v>
@@ -4410,10 +4407,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="C55" s="18">
         <v>124019</v>
@@ -4466,10 +4463,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="C56" s="18">
         <v>126700</v>
@@ -4522,10 +4519,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="C57" s="14">
         <v>92377</v>
@@ -4578,10 +4575,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="B58" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="C58" s="18">
         <v>19671</v>
@@ -4634,10 +4631,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="C59" s="18">
         <v>7230</v>
@@ -4676,10 +4673,10 @@
         <v>2449</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q59" s="19">
         <v>119.06319999999999</v>
@@ -4690,10 +4687,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="C60" s="14">
         <v>5679</v>
@@ -4723,10 +4720,10 @@
         <v>1178.8538880000001</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N60" s="14">
         <v>2429</v>
@@ -4747,7 +4744,7 @@
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="26">
         <v>511543</v>
@@ -4801,7 +4798,7 @@
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29"/>
       <c r="B62" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="31">
         <v>3006351.8391</v>
@@ -4855,7 +4852,7 @@
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="31">
         <v>10394697.388900001</v>
@@ -4909,7 +4906,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C64" s="36">
         <v>2041468.7</v>
@@ -4963,7 +4960,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="40">
         <v>2515516.8199999998</v>
@@ -5017,7 +5014,7 @@
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C66" s="36">
         <v>13401049.228</v>
@@ -5071,7 +5068,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C67" s="43">
         <v>1178524.0815000001</v>
@@ -5125,7 +5122,7 @@
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C68" s="40">
         <v>1394328.6405</v>
@@ -5179,7 +5176,7 @@
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="40">
         <v>245729.65760000001</v>
@@ -5233,7 +5230,7 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="40">
         <v>666683</v>
@@ -5287,7 +5284,7 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="40">
         <v>511543</v>
@@ -5341,7 +5338,7 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="40">
         <v>522465.13909999997</v>
@@ -5395,7 +5392,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C73" s="40">
         <v>986457.59999999998</v>
@@ -5449,7 +5446,7 @@
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="34"/>
       <c r="B74" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C74" s="36">
         <v>578214.1</v>
@@ -5503,7 +5500,7 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="34"/>
       <c r="B75" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" s="43">
         <v>449247.62</v>
@@ -5557,7 +5554,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" s="40">
         <v>1770860.2</v>
@@ -5611,7 +5608,7 @@
     <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="34"/>
       <c r="B77" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C77" s="36">
         <v>417283.88890000002</v>
@@ -5665,7 +5662,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="43">
         <v>1387260.7575999999</v>
@@ -5719,7 +5716,7 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="34"/>
       <c r="B79" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="40">
         <v>3049873.19</v>
@@ -5773,7 +5770,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C80" s="40">
         <v>1619091.0815000001</v>
@@ -5827,7 +5824,7 @@
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="34"/>
       <c r="B81" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="36">
         <v>7344824.1989000002</v>
@@ -5881,7 +5878,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C82" s="43">
         <v>1374740.6391</v>
@@ -5935,7 +5932,7 @@
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="34"/>
       <c r="B83" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C83" s="40">
         <v>165568</v>
@@ -5989,7 +5986,7 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84" s="40">
         <v>1163324.2</v>
@@ -6043,7 +6040,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="40">
         <v>1094094.8999999999</v>
@@ -6097,7 +6094,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C86" s="40">
         <v>468037</v>
@@ -6151,7 +6148,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C87" s="40">
         <v>5443073.8200000003</v>
@@ -6205,7 +6202,7 @@
     <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="36">
         <v>3692210.6688999999</v>
@@ -6259,7 +6256,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="43">
         <v>1809256.7390999999</v>
@@ -6313,7 +6310,7 @@
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" s="40">
         <v>269295</v>
@@ -6367,7 +6364,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C91" s="40">
         <v>4548.1000000000004</v>
@@ -6421,7 +6418,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="40">
         <v>116594.9</v>
@@ -6475,7 +6472,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C93" s="40">
         <v>864557.59860000003</v>
@@ -6529,7 +6526,7 @@
     <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94" s="36">
         <v>832383.4</v>
@@ -6583,7 +6580,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" s="43">
         <v>1472772.541</v>
@@ -6637,7 +6634,7 @@
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C96" s="40">
         <v>580071</v>
@@ -6691,7 +6688,7 @@
     <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="34"/>
       <c r="B97" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" s="47">
         <v>957615.39809999999</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99" s="54"/>
       <c r="D99" s="55"/>
@@ -6785,7 +6782,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B100" s="54"/>
       <c r="D100" s="55"/>
@@ -6806,7 +6803,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B101" s="54"/>
       <c r="D101" s="55"/>
@@ -6827,7 +6824,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B102" s="54"/>
       <c r="D102" s="55"/>
@@ -6884,7 +6881,7 @@
     </row>
     <row r="105" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B107" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
@@ -6942,7 +6939,7 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D108" s="55"/>
       <c r="E108" s="55"/>
@@ -6962,7 +6959,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
@@ -6982,7 +6979,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -7002,7 +6999,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="179">
   <si>
     <t>Tableau 23 : Durabilité écologique</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Pays (pays riches en ressources ombrés)</t>
+  </si>
+  <si>
+    <t>Superficie (milliers d'hectares), 2018</t>
   </si>
   <si>
     <t>Terres agricoles (milliers d'hectares), 2018</t>
@@ -1444,61 +1447,61 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="e">
-        <v>#N/A</v>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="14">
         <v>124670</v>
@@ -1513,7 +1516,7 @@
         <v>67717.509999999995</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="14">
         <v>3057.0328909999998</v>
@@ -1551,10 +1554,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="14">
         <v>58173</v>
@@ -1587,7 +1590,7 @@
         <v>34.629939999999998</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="14">
         <v>2340</v>
@@ -1607,10 +1610,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="18">
         <v>1736</v>
@@ -1628,31 +1631,31 @@
         <v>16</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="19">
         <v>2405</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="19">
         <v>22.726900000000001</v>
@@ -1663,10 +1666,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="18">
         <v>3036</v>
@@ -1681,34 +1684,34 @@
         <v>34.520000000000003</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N6" s="19">
         <v>2282</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="19">
         <v>1.6394</v>
@@ -1719,10 +1722,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="18">
         <v>11848</v>
@@ -1775,10 +1778,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="18">
         <v>79938</v>
@@ -1831,10 +1834,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="18">
         <v>82429</v>
@@ -1864,10 +1867,10 @@
         <v>202.17576399999999</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N9" s="19">
         <v>2431</v>
@@ -1887,10 +1890,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="18">
         <v>121909</v>
@@ -1943,10 +1946,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="14">
         <v>75261</v>
@@ -1976,10 +1979,10 @@
         <v>1967.1030370000001</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N11" s="14">
         <v>2013</v>
@@ -1999,10 +2002,10 @@
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="18">
         <v>39076</v>
@@ -2020,22 +2023,22 @@
         <v>391</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N12" s="19">
         <v>2173</v>
@@ -2055,10 +2058,10 @@
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="26">
         <v>598076</v>
@@ -2111,10 +2114,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" s="18">
         <v>2783</v>
@@ -2150,7 +2153,7 @@
         <v>27.159061000000001</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="19">
         <v>13456.65</v>
@@ -2167,10 +2170,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" s="18">
         <v>47544</v>
@@ -2223,10 +2226,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="18">
         <v>62298</v>
@@ -2241,7 +2244,7 @@
         <v>22363</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="19">
         <v>812.02478799999994</v>
@@ -2256,10 +2259,10 @@
         <v>812.02478799999994</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N16" s="19">
         <v>1758</v>
@@ -2279,10 +2282,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="14">
         <v>128400</v>
@@ -2321,10 +2324,10 @@
         <v>2090</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P17" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="14">
         <v>249.01689999999999</v>
@@ -2335,10 +2338,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="14">
         <v>34200</v>
@@ -2391,10 +2394,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" s="14">
         <v>234486</v>
@@ -2412,25 +2415,25 @@
         <v>7781</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" s="14">
         <v>9670.52</v>
@@ -2447,10 +2450,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="14">
         <v>2805</v>
@@ -2465,13 +2468,13 @@
         <v>2465.14</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="14">
         <v>149.454779</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J20" s="14">
         <v>134.59779900000001</v>
@@ -2486,13 +2489,13 @@
         <v>7.0239859999999998</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="14">
         <v>308.1918</v>
@@ -2503,10 +2506,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="14">
         <v>26767</v>
@@ -2524,22 +2527,22 @@
         <v>1000</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N21" s="14">
         <v>2643</v>
@@ -2559,10 +2562,10 @@
     </row>
     <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" s="18">
         <v>96</v>
@@ -2577,34 +2580,34 @@
         <v>53.14</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N22" s="19">
         <v>2418</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="19">
         <v>5.0328999999999997</v>
@@ -2615,10 +2618,10 @@
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="26">
         <v>539379</v>
@@ -2671,10 +2674,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="18">
         <v>186.1</v>
@@ -2689,34 +2692,34 @@
         <v>33.799999999999997</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="19">
         <v>1.2597</v>
@@ -2727,10 +2730,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="18">
         <v>2320</v>
@@ -2748,31 +2751,31 @@
         <v>2</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" s="19">
         <v>2680</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="19">
         <v>0.3019</v>
@@ -2783,10 +2786,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="18">
         <v>11760</v>
@@ -2804,25 +2807,25 @@
         <v>1660</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O26" s="19">
         <v>4650.05</v>
@@ -2839,10 +2842,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" s="18">
         <v>113625.94100000001</v>
@@ -2895,10 +2898,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C28" s="18">
         <v>58037</v>
@@ -2951,10 +2954,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="18">
         <v>58729.5</v>
@@ -3007,10 +3010,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="18">
         <v>204</v>
@@ -3063,10 +3066,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C31" s="18">
         <v>2634</v>
@@ -3119,10 +3122,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="18">
         <v>46</v>
@@ -3137,13 +3140,13 @@
         <v>33.700000000000003</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" s="19">
         <v>16.571204999999999</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J32" s="19">
         <v>10.332527000000001</v>
@@ -3158,7 +3161,7 @@
         <v>0.19053200000000001</v>
       </c>
       <c r="N32" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O32" s="19">
         <v>46.75</v>
@@ -3175,10 +3178,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="18">
         <v>63766</v>
@@ -3196,31 +3199,31 @@
         <v>1032</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="19">
         <v>378.19159999999999</v>
@@ -3231,10 +3234,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="14">
         <v>63390.657599999999</v>
@@ -3252,34 +3255,34 @@
         <v>197.84530000000001</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R34" s="15">
         <v>47821.184699999998</v>
@@ -3287,10 +3290,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="18">
         <v>185410.5405</v>
@@ -3308,22 +3311,22 @@
         <v>487.16899999999998</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N35" s="19">
         <v>2433</v>
@@ -3343,10 +3346,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="18">
         <v>94730</v>
@@ -3364,22 +3367,22 @@
         <v>6150</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M36" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N36" s="19">
         <v>2396</v>
@@ -3399,10 +3402,10 @@
     </row>
     <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="18">
         <v>24155</v>
@@ -3420,22 +3423,22 @@
         <v>4103</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37" s="19">
         <v>2144</v>
@@ -3455,10 +3458,10 @@
     </row>
     <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="26">
         <v>678994.73910000001</v>
@@ -3511,10 +3514,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="14">
         <v>238174.1</v>
@@ -3529,7 +3532,7 @@
         <v>1930</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H39" s="14">
         <v>22703.949819000001</v>
@@ -3567,10 +3570,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="18">
         <v>100145</v>
@@ -3623,10 +3626,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="14">
         <v>175954</v>
@@ -3641,28 +3644,28 @@
         <v>217</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O41" s="14">
         <v>14700</v>
@@ -3679,10 +3682,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C42" s="14">
         <v>103070</v>
@@ -3697,34 +3700,34 @@
         <v>323.7</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M42" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N42" s="14">
         <v>2842</v>
       </c>
       <c r="O42" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P42" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="14">
         <v>11.2486</v>
@@ -3735,10 +3738,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="18">
         <v>44655</v>
@@ -3791,10 +3794,10 @@
     </row>
     <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44" s="18">
         <v>16361</v>
@@ -3812,22 +3815,22 @@
         <v>825</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M44" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N44" s="19">
         <v>3467</v>
@@ -3847,10 +3850,10 @@
     </row>
     <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="26">
         <v>678359.1</v>
@@ -3903,10 +3906,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C46" s="18">
         <v>11476</v>
@@ -3939,7 +3942,7 @@
         <v>27.943912000000001</v>
       </c>
       <c r="M46" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N46" s="19">
         <v>2756</v>
@@ -3959,10 +3962,10 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="18">
         <v>27422</v>
@@ -4015,10 +4018,10 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="18">
         <v>403</v>
@@ -4033,7 +4036,7 @@
         <v>45.12</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H48" s="19">
         <v>172.454757</v>
@@ -4057,10 +4060,10 @@
         <v>2515</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P48" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q48" s="19">
         <v>2.5809000000000002</v>
@@ -4071,10 +4074,10 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" s="18">
         <v>32246</v>
@@ -4127,10 +4130,10 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C50" s="18">
         <v>1130</v>
@@ -4183,10 +4186,10 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="14">
         <v>23854</v>
@@ -4239,10 +4242,10 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="18">
         <v>24586</v>
@@ -4295,10 +4298,10 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="18">
         <v>3613</v>
@@ -4331,16 +4334,16 @@
         <v>480.46636599999999</v>
       </c>
       <c r="M53" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N53" s="19">
         <v>2253</v>
       </c>
       <c r="O53" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P53" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="19">
         <v>95.850700000000003</v>
@@ -4351,10 +4354,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="18">
         <v>11137</v>
@@ -4372,31 +4375,31 @@
         <v>1505</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M54" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N54" s="19">
         <v>2132</v>
       </c>
       <c r="O54" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P54" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q54" s="19">
         <v>919.12860000000001</v>
@@ -4407,10 +4410,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="18">
         <v>124019</v>
@@ -4463,10 +4466,10 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C56" s="18">
         <v>126700</v>
@@ -4519,10 +4522,10 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C57" s="14">
         <v>92377</v>
@@ -4575,10 +4578,10 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="18">
         <v>19671</v>
@@ -4631,10 +4634,10 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="18">
         <v>7230</v>
@@ -4673,10 +4676,10 @@
         <v>2449</v>
       </c>
       <c r="O59" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P59" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q59" s="19">
         <v>119.06319999999999</v>
@@ -4687,10 +4690,10 @@
     </row>
     <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C60" s="14">
         <v>5679</v>
@@ -4720,10 +4723,10 @@
         <v>1178.8538880000001</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M60" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N60" s="14">
         <v>2429</v>
@@ -4744,7 +4747,7 @@
     <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="26">
         <v>511543</v>
@@ -4798,7 +4801,7 @@
     <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="29"/>
       <c r="B62" s="30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" s="31">
         <v>3006351.8391</v>
@@ -4852,7 +4855,7 @@
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="29"/>
       <c r="B63" s="30" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C63" s="31">
         <v>10394697.388900001</v>
@@ -4906,7 +4909,7 @@
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="36">
         <v>2041468.7</v>
@@ -4960,7 +4963,7 @@
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C65" s="40">
         <v>2515516.8199999998</v>
@@ -5014,7 +5017,7 @@
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" s="36">
         <v>13401049.228</v>
@@ -5068,7 +5071,7 @@
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C67" s="43">
         <v>1178524.0815000001</v>
@@ -5122,7 +5125,7 @@
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C68" s="40">
         <v>1394328.6405</v>
@@ -5176,7 +5179,7 @@
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C69" s="40">
         <v>245729.65760000001</v>
@@ -5230,7 +5233,7 @@
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C70" s="40">
         <v>666683</v>
@@ -5284,7 +5287,7 @@
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="40">
         <v>511543</v>
@@ -5338,7 +5341,7 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" s="40">
         <v>522465.13909999997</v>
@@ -5392,7 +5395,7 @@
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="40">
         <v>986457.59999999998</v>
@@ -5446,7 +5449,7 @@
     <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="34"/>
       <c r="B74" s="39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C74" s="36">
         <v>578214.1</v>
@@ -5500,7 +5503,7 @@
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="34"/>
       <c r="B75" s="42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="43">
         <v>449247.62</v>
@@ -5554,7 +5557,7 @@
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="40">
         <v>1770860.2</v>
@@ -5608,7 +5611,7 @@
     <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="34"/>
       <c r="B77" s="39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C77" s="36">
         <v>417283.88890000002</v>
@@ -5662,7 +5665,7 @@
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="43">
         <v>1387260.7575999999</v>
@@ -5716,7 +5719,7 @@
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="34"/>
       <c r="B79" s="39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" s="40">
         <v>3049873.19</v>
@@ -5770,7 +5773,7 @@
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="39" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C80" s="40">
         <v>1619091.0815000001</v>
@@ -5824,7 +5827,7 @@
     <row r="81" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="34"/>
       <c r="B81" s="39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C81" s="36">
         <v>7344824.1989000002</v>
@@ -5878,7 +5881,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C82" s="43">
         <v>1374740.6391</v>
@@ -5932,7 +5935,7 @@
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" s="34"/>
       <c r="B83" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C83" s="40">
         <v>165568</v>
@@ -5986,7 +5989,7 @@
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C84" s="40">
         <v>1163324.2</v>
@@ -6040,7 +6043,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85" s="40">
         <v>1094094.8999999999</v>
@@ -6094,7 +6097,7 @@
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="39" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C86" s="40">
         <v>468037</v>
@@ -6148,7 +6151,7 @@
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87" s="40">
         <v>5443073.8200000003</v>
@@ -6202,7 +6205,7 @@
     <row r="88" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="34"/>
       <c r="B88" s="39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C88" s="36">
         <v>3692210.6688999999</v>
@@ -6256,7 +6259,7 @@
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C89" s="43">
         <v>1809256.7390999999</v>
@@ -6310,7 +6313,7 @@
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" s="34"/>
       <c r="B90" s="39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C90" s="40">
         <v>269295</v>
@@ -6364,7 +6367,7 @@
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="39" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" s="40">
         <v>4548.1000000000004</v>
@@ -6418,7 +6421,7 @@
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" s="40">
         <v>116594.9</v>
@@ -6472,7 +6475,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C93" s="40">
         <v>864557.59860000003</v>
@@ -6526,7 +6529,7 @@
     <row r="94" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="34"/>
       <c r="B94" s="39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C94" s="36">
         <v>832383.4</v>
@@ -6580,7 +6583,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C95" s="43">
         <v>1472772.541</v>
@@ -6634,7 +6637,7 @@
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" s="34"/>
       <c r="B96" s="39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C96" s="40">
         <v>580071</v>
@@ -6688,7 +6691,7 @@
     <row r="97" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="34"/>
       <c r="B97" s="46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C97" s="47">
         <v>957615.39809999999</v>
@@ -6761,7 +6764,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" s="53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B99" s="54"/>
       <c r="D99" s="55"/>
@@ -6782,7 +6785,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" s="53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B100" s="54"/>
       <c r="D100" s="55"/>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" s="53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B101" s="54"/>
       <c r="D101" s="55"/>
@@ -6824,7 +6827,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" s="53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B102" s="54"/>
       <c r="D102" s="55"/>
@@ -6881,7 +6884,7 @@
     </row>
     <row r="105" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="58" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B107" s="59" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
@@ -6939,7 +6942,7 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B108" s="59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D108" s="55"/>
       <c r="E108" s="55"/>
@@ -6959,7 +6962,7 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B109" s="60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
@@ -6979,7 +6982,7 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B110" s="60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
@@ -6999,7 +7002,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B111" s="60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -504,7 +504,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé (LAC exclus)</t>
+    <t>Pays à revenu élévé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>
@@ -534,7 +534,7 @@
     <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
   </si>
   <si>
-    <t>RDM = "Reste du monde" ; LAC = "Pays d'Amérique latine et des Caraïbes"</t>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
   </si>
   <si>
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_tableau_annexe_Tab23.xlsx
+++ b/DDAf_2021_tableau_annexe_Tab23.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Tab23" sheetId="1" r:id="rId1"/>
@@ -2097,7 +2097,7 @@
         <v>775.39594499999998</v>
       </c>
       <c r="N13" s="26">
-        <v>23859</v>
+        <v>2525.2400042378199</v>
       </c>
       <c r="O13" s="26">
         <v>861034.18</v>
@@ -2657,7 +2657,7 @@
         <v>466.269138</v>
       </c>
       <c r="N23" s="26">
-        <v>13871</v>
+        <v>2373.8133079182198</v>
       </c>
       <c r="O23" s="26">
         <v>76263.47</v>
@@ -3497,7 +3497,7 @@
         <v>2533.0196059999998</v>
       </c>
       <c r="N38" s="26">
-        <v>21326</v>
+        <v>2258.1855425952399</v>
       </c>
       <c r="O38" s="26">
         <v>841204.69</v>
@@ -3889,7 +3889,7 @@
         <v>351.28337599999998</v>
       </c>
       <c r="N45" s="26">
-        <v>16359</v>
+        <v>3336.2071632669099</v>
       </c>
       <c r="O45" s="26">
         <v>1718100</v>
@@ -4783,7 +4783,7 @@
         <v>2324.9731160000001</v>
       </c>
       <c r="N61" s="26">
-        <v>38933</v>
+        <v>2590.5500867576102</v>
       </c>
       <c r="O61" s="26">
         <v>802291.65</v>
@@ -4837,7 +4837,7 @@
         <v>6450.9411810000001</v>
       </c>
       <c r="N62" s="31">
-        <v>114348</v>
+        <v>2597.67579128335</v>
       </c>
       <c r="O62" s="31">
         <v>4298893.99</v>
@@ -4891,7 +4891,7 @@
         <v>69414.082563000004</v>
       </c>
       <c r="N63" s="31">
-        <v>362526</v>
+        <v>2973.5091189032701</v>
       </c>
       <c r="O63" s="31">
         <v>104193240.12</v>
@@ -4945,7 +4945,7 @@
         <v>17115.066247999999</v>
       </c>
       <c r="N64" s="36">
-        <v>91312</v>
+        <v>3047.2970802363898</v>
       </c>
       <c r="O64" s="36">
         <v>10160346.869999999</v>
@@ -4999,7 +4999,7 @@
         <v>36715.806629999999</v>
       </c>
       <c r="N65" s="40">
-        <v>73447</v>
+        <v>2804.1083144570098</v>
       </c>
       <c r="O65" s="40">
         <v>60136550.57</v>
@@ -5053,7 +5053,7 @@
         <v>75865.023744000006</v>
       </c>
       <c r="N66" s="36">
-        <v>476874</v>
+        <v>2916.5117556755899</v>
       </c>
       <c r="O66" s="36">
         <v>108492134.11</v>
@@ -5107,7 +5107,7 @@
         <v>2756.077667</v>
       </c>
       <c r="N67" s="43">
-        <v>34956</v>
+        <v>2511.50676411314</v>
       </c>
       <c r="O67" s="43">
         <v>2423044.2400000002</v>
@@ -5161,7 +5161,7 @@
         <v>2689.9299980000001</v>
       </c>
       <c r="N68" s="40">
-        <v>56257</v>
+        <v>2755.4966645743498</v>
       </c>
       <c r="O68" s="40">
         <v>2617994.59</v>
@@ -5215,7 +5215,7 @@
         <v>1909.5307439999999</v>
       </c>
       <c r="N69" s="40">
-        <v>8879</v>
+        <v>2230.1906916993898</v>
       </c>
       <c r="O69" s="40">
         <v>230698.35</v>
@@ -5269,7 +5269,7 @@
         <v>485.49350500000003</v>
       </c>
       <c r="N70" s="40">
-        <v>18356</v>
+        <v>2320.2769207746501</v>
       </c>
       <c r="O70" s="40">
         <v>102540.01</v>
@@ -5323,7 +5323,7 @@
         <v>2324.9731160000001</v>
       </c>
       <c r="N71" s="40">
-        <v>38933</v>
+        <v>2590.5500867576102</v>
       </c>
       <c r="O71" s="40">
         <v>802291.65</v>
@@ -5377,7 +5377,7 @@
         <v>2428.6994070000001</v>
       </c>
       <c r="N72" s="40">
-        <v>11685</v>
+        <v>2262.22687253816</v>
       </c>
       <c r="O72" s="40">
         <v>659003.76</v>
@@ -5431,7 +5431,7 @@
         <v>867.26280499999996</v>
       </c>
       <c r="N73" s="40">
-        <v>31285</v>
+        <v>2437.6284547318101</v>
       </c>
       <c r="O73" s="40">
         <v>1048571.57</v>
@@ -5485,7 +5485,7 @@
         <v>182.87835899999999</v>
       </c>
       <c r="N74" s="36">
-        <v>13038</v>
+        <v>3352.0306002006701</v>
       </c>
       <c r="O74" s="36">
         <v>405200</v>
@@ -5539,7 +5539,7 @@
         <v>15882.520490999999</v>
       </c>
       <c r="N75" s="43">
-        <v>22460</v>
+        <v>2832.1198234047301</v>
       </c>
       <c r="O75" s="43">
         <v>7757224.6399999997</v>
@@ -5593,7 +5593,7 @@
         <v>14887.367204</v>
       </c>
       <c r="N76" s="40">
-        <v>34019</v>
+        <v>3051.80122409674</v>
       </c>
       <c r="O76" s="40">
         <v>8169349.0099999998</v>
@@ -5647,7 +5647,7 @@
         <v>5514.3229270000002</v>
       </c>
       <c r="N77" s="36">
-        <v>89850</v>
+        <v>3450.4861828215398</v>
       </c>
       <c r="O77" s="36">
         <v>9998289.8200000003</v>
@@ -5701,7 +5701,7 @@
         <v>456.59437400000002</v>
       </c>
       <c r="N78" s="43">
-        <v>27782</v>
+        <v>2565.1844073995699</v>
       </c>
       <c r="O78" s="43">
         <v>794905.25</v>
@@ -5755,7 +5755,7 @@
         <v>3100.7404510000001</v>
       </c>
       <c r="N79" s="40">
-        <v>57155</v>
+        <v>3002.9781012830599</v>
       </c>
       <c r="O79" s="40">
         <v>4275206.54</v>
@@ -5809,7 +5809,7 @@
         <v>5994.3468069999999</v>
       </c>
       <c r="N80" s="40">
-        <v>86566</v>
+        <v>2612.2435405891802</v>
       </c>
       <c r="O80" s="40">
         <v>3503988.74</v>
@@ -5863,7 +5863,7 @@
         <v>66313.342111999998</v>
       </c>
       <c r="N81" s="36">
-        <v>305371</v>
+        <v>2971.0449106783599</v>
       </c>
       <c r="O81" s="36">
         <v>99918033.579999998</v>
@@ -5917,7 +5917,7 @@
         <v>1685.514332</v>
       </c>
       <c r="N82" s="43">
-        <v>42621</v>
+        <v>2357.5412526099699</v>
       </c>
       <c r="O82" s="43">
         <v>951684.2</v>
@@ -5971,7 +5971,7 @@
         <v>54.039020000000001</v>
       </c>
       <c r="N83" s="40">
-        <v>10363</v>
+        <v>2048.36264164764</v>
       </c>
       <c r="O83" s="40">
         <v>63581.279999999999</v>
@@ -6025,7 +6025,7 @@
         <v>4094.982579</v>
       </c>
       <c r="N84" s="40">
-        <v>58192</v>
+        <v>2704.5365449258402</v>
       </c>
       <c r="O84" s="40">
         <v>2807328.94</v>
@@ -6079,7 +6079,7 @@
         <v>26921.347960999999</v>
       </c>
       <c r="N85" s="40">
-        <v>60796</v>
+        <v>2560.2928867453902</v>
       </c>
       <c r="O85" s="40">
         <v>27740979.050000001</v>
@@ -6133,7 +6133,7 @@
         <v>668.00515199999995</v>
       </c>
       <c r="N86" s="40">
-        <v>10408</v>
+        <v>2938.7327190576202</v>
       </c>
       <c r="O86" s="40">
         <v>532425.5</v>
@@ -6187,7 +6187,7 @@
         <v>29383.785455000001</v>
       </c>
       <c r="N87" s="40">
-        <v>132324</v>
+        <v>3136.9501503757401</v>
       </c>
       <c r="O87" s="40">
         <v>47934094</v>
@@ -6241,7 +6241,7 @@
         <v>13057.349244999999</v>
       </c>
       <c r="N88" s="36">
-        <v>162170</v>
+        <v>3430.63190255068</v>
       </c>
       <c r="O88" s="36">
         <v>28462041.140000001</v>
@@ -6295,7 +6295,7 @@
         <v>1700.935925</v>
       </c>
       <c r="N89" s="43">
-        <v>64890</v>
+        <v>2365.7601031254299</v>
       </c>
       <c r="O89" s="43">
         <v>1348429.74</v>
@@ -6349,7 +6349,7 @@
         <v>1251.2751479999999</v>
       </c>
       <c r="N90" s="40">
-        <v>30139</v>
+        <v>2515.0144422708399</v>
       </c>
       <c r="O90" s="40">
         <v>1909978.67</v>
@@ -6403,7 +6403,7 @@
         <v>2.6896719999999998</v>
       </c>
       <c r="N91" s="40">
-        <v>10313</v>
+        <v>2586.6169510907398</v>
       </c>
       <c r="O91" s="40">
         <v>7455.35</v>
@@ -6457,7 +6457,7 @@
         <v>98.416044999999997</v>
       </c>
       <c r="N92" s="40">
-        <v>61760</v>
+        <v>2782.3243861455298</v>
       </c>
       <c r="O92" s="40">
         <v>230222.27</v>
@@ -6511,7 +6511,7 @@
         <v>1473.3560440000001</v>
       </c>
       <c r="N93" s="40">
-        <v>32596</v>
+        <v>2343.3037766356401</v>
       </c>
       <c r="O93" s="40">
         <v>937536.18</v>
@@ -6565,7 +6565,7 @@
         <v>2512.9206869999998</v>
       </c>
       <c r="N94" s="36">
-        <v>40945</v>
+        <v>2683.4725649816901</v>
       </c>
       <c r="O94" s="36">
         <v>1514361.74</v>
@@ -6619,7 +6619,7 @@
         <v>5275.337724</v>
       </c>
       <c r="N95" s="43">
-        <v>60510</v>
+        <v>2383.6527428618601</v>
       </c>
       <c r="O95" s="43">
         <v>1651027.01</v>
@@ -6673,7 +6673,7 @@
         <v>5211.203861</v>
       </c>
       <c r="N96" s="40">
-        <v>32785</v>
+        <v>2536.0402697965901</v>
       </c>
       <c r="O96" s="40">
         <v>6373112.3899999997</v>
@@ -6727,7 +6727,7 @@
         <v>86.349022000000005</v>
       </c>
       <c r="N97" s="47">
-        <v>17323</v>
+        <v>2235.95057650024</v>
       </c>
       <c r="O97" s="47">
         <v>423189.97</v>
